--- a/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_wind_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/kmeans_10_af_df_wind_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02186588921282799</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01173512154233026</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.002989130434782609</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.01412776412776413</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02741020793950849</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01194743130227001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.03790087463556849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003895184135977338</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01089689857502096</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.008984725965858042</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02010869565217389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01157742402315485</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03119092627599242</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05017921146953415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.08527696793002894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.023371104815864</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006705783738474434</v>
+        <v>0.02361142343152681</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002693602693602694</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02691511387163565</v>
+        <v>0.02880434782608689</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002894356005788712</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.006756756756756756</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05576559546313803</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07526881720430116</v>
+        <v>0.00830367734282325</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.02551020408163266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06515580736543904</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008382229673093043</v>
+        <v>0.1425680233865518</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2410774410774434</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="G5" t="n">
-        <v>0.163561076604554</v>
+        <v>0.03695652173913032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01890359168241966</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04360812425328561</v>
+        <v>0.2253855278766305</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.009475218658892131</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006705783738474434</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.005978260869565219</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="J6" t="n">
-        <v>0.008506616257088848</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.00759493670886076</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -669,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.008984725965858042</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.01781326781326782</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03117505995203836</v>
+        <v>0.167638483965014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2659348441926337</v>
+        <v>0.02025316455696203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0410729253981559</v>
+        <v>0.1070384528895878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428572</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008754208754208752</v>
+        <v>0.02246181491464511</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08459035788228303</v>
+        <v>0.372554347826085</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03473227206946454</v>
+        <v>0.02155172413793103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00625</v>
+        <v>0.0380835380835381</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08034026465028352</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3793309438470772</v>
+        <v>0.01304863582443653</v>
       </c>
     </row>
     <row r="9">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.004492362982929021</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.001436781609195402</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0208845208845209</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05995203836930454</v>
+        <v>0.07361516034985406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006373937677053827</v>
+        <v>0.03291139240506329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1466890192791283</v>
+        <v>0.006521250281088375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06493506493506494</v>
+        <v>0.005571030640668524</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.04222821203953284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008873114463176574</v>
+        <v>0.01874999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05209840810419684</v>
+        <v>0.03735632183908043</v>
       </c>
       <c r="I10" t="n">
-        <v>0.025</v>
+        <v>0.1437346437346439</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0680529300567108</v>
+        <v>0.03629032258064514</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02031063321385902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -842,31 +842,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06954436450839327</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.03544303797468355</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02597402597402598</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.02425876010781673</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04920405209840813</v>
+        <v>0.03735632183908043</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01097733711048158</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0008382229673093043</v>
+        <v>0.01416685405891613</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01360544217687074</v>
+        <v>0.005434782608695654</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0006142506142506142</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001890359168241966</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004778972520908004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.01676384839650146</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007082152974504252</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005029337803855826</v>
+        <v>0.03485495839892048</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2632996632996655</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05471753918958877</v>
+        <v>0.00706521739130435</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01795841209829868</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01314217443249701</v>
+        <v>0.2550415183867135</v>
       </c>
     </row>
     <row r="15">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04777870913663031</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03501228501228504</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01918465227817745</v>
+        <v>0.05903790087463546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03293201133144472</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03436714165968149</v>
+        <v>0.03665392399370346</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01298701298701299</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.01796945193171608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03608399881691809</v>
+        <v>0.02853260869565211</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02460202604920404</v>
+        <v>0.01005747126436782</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.02825552825552829</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06049149338374295</v>
+        <v>0.006048387096774193</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04838709677419364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.003644314868804665</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0008382229673093043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0008152173913043479</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002835538752362949</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002986857825567503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004796163069544364</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.005063291139240506</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006493506493506494</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004341534008683067</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0113314447592068</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00586756077116513</v>
+        <v>0.01709017315043849</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02040816326530613</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01606805293005672</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02688172043010752</v>
+        <v>0.01245551601423487</v>
       </c>
     </row>
     <row r="20">
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.008017492711370264</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002514668901927913</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.005978260869565219</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01228733459357278</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01493428912783751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.007288629737609331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007082152974504252</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003352891869237217</v>
+        <v>0.009894310771306499</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.001796945193171608</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009464655427388341</v>
+        <v>0.005706521739130437</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001447178002894356</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.003071253071253071</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01039697542533081</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.008363201911589008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1215,28 +1215,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.02784810126582278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.005571030640668524</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.04582210242587607</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.06034482758620684</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.001228501228501228</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1249,34 +1249,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.05903790087463546</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004603399433427764</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03017602682313498</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.02695417789757414</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.03614130434782598</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0361794500723589</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.02702702702702706</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05671077504725901</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09318996415770607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1286,31 +1286,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009592326139088728</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002514668901927913</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006493506493506494</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005788712011577424</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.0006142506142506142</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06954436450839327</v>
+        <v>0.06268221574344011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01062322946175637</v>
+        <v>0.03544303797468355</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1064543168482814</v>
+        <v>0.02675961322239704</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07407407407407406</v>
+        <v>0.07816711590296507</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04111209701271812</v>
+        <v>0.01086956521739131</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1273516642547035</v>
+        <v>0.05028735632183904</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.08968058968058985</v>
       </c>
       <c r="J32" t="n">
-        <v>0.09073724007561428</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02927120669056153</v>
+        <v>0.08540925266903901</v>
       </c>
     </row>
     <row r="33">
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2613908872901684</v>
+        <v>0.02040816326530613</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.1341772151898735</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1508801341156749</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1493506493506494</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.1644204851752018</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2691751085383493</v>
+        <v>0.1623563218390806</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00625</v>
+        <v>0.1246928746928752</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08601134215500938</v>
+        <v>0.07056451612903221</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001194743130227001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.002186588921282799</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000708215297450425</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0008152173913043479</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.001890359168241966</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001194743130227001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.001194743130227001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.01144781144781144</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0005915409642117716</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0005973715651135006</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
